--- a/artfynd/A 59340-2018.xlsx
+++ b/artfynd/A 59340-2018.xlsx
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332332.9438720365</v>
+        <v>332333</v>
       </c>
       <c r="R2" t="n">
-        <v>6626960.222982673</v>
+        <v>6626960</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,19 +757,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 59340-2018.xlsx
+++ b/artfynd/A 59340-2018.xlsx
@@ -683,7 +683,7 @@
         <v>112189000</v>
       </c>
       <c r="B2" t="n">
-        <v>94134</v>
+        <v>94287</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 59340-2018.xlsx
+++ b/artfynd/A 59340-2018.xlsx
@@ -683,7 +683,7 @@
         <v>112189000</v>
       </c>
       <c r="B2" t="n">
-        <v>94287</v>
+        <v>94301</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
